--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_56.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_56.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(55.589104, 66.734682)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(47.187, 57.707)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/4', 'F#:min', 'B:min']]</t>
-        </is>
+          <t>isophonics_184</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.172360248447205</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:min', 'F#:min']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(33.658, 37.859)]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.224693, 15.343151)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:57.673129', '0:01:03.489727')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.444363', '0:00:11.013666')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07605905006418484</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E']]</t>
+          <t>[['D/5', 'E/4', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.033, 23.861)]</t>
+          <t>[('0:00:05.544000', '0:00:08.638000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:18.675377', '0:00:23.261318')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.078125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'C/6']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1428571428571428</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.361111, 44.263604)]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(96.39, 98.62)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_41</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2275600505689001</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82)]</t>
+          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.21, 14.45)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:03:40.960000', '0:03:52.160000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2451923076923077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(33.698526, 40.885102)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(93.1, 111.54)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.52, 47.4)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.480839, 6.357029)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(46.74, 58.46)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.3, 3.64)]</t>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1101351351351351</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.82, 16.26)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(43.54, 60.0)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56)]</t>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.08, 30.92), (43.88, 48.02)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.64, 33.0), (13.48, 20.96)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1009615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj'], ['F:maj', 'G', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G'], ['C/5', 'D/3', 'G']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742), (32.808, 36.091)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965), (33.466326, 38.923015)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05425278219395867</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.39, 14.82)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1487804878048781</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D/5', 'E/4', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.979342, 16.701519)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.544, 9.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
